--- a/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_06_CO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="196">
   <si>
     <t>Asignatura</t>
   </si>
@@ -419,15 +424,6 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>El efecto de impulsar un objeto</t>
-  </si>
-  <si>
-    <t>Basarse en esta animación: http://www.science-animations.com/support-files/momentum.swf</t>
-  </si>
-  <si>
-    <t>Interactivo con animación que permite identificar el valor del trabajo de acuerdo con el tipo de superficie de contacto</t>
-  </si>
-  <si>
     <t>Los distintas formas de impulso</t>
   </si>
   <si>
@@ -449,15 +445,6 @@
     <t>Consolidación</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El impulso y los cohetes</t>
-  </si>
-  <si>
-    <t>Interactivo que describe el uso de los cohetes y su relación con el impulso</t>
-  </si>
-  <si>
-    <t>Recurso F6B-02</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: El impulso</t>
   </si>
   <si>
@@ -479,33 +466,9 @@
     <t>Recurso F4-01</t>
   </si>
   <si>
-    <t>El momento lineal en la vida cotidiana</t>
-  </si>
-  <si>
     <t>Interactivo que presenta el concepto de momento lineal</t>
   </si>
   <si>
-    <t>Interactivo con animación que muestra un caso de aplicación del momento lineal</t>
-  </si>
-  <si>
-    <t>Relación del impulso con el momento lineal</t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar un experimento para analizar la relación entre momento lineal e impulso</t>
-  </si>
-  <si>
-    <t>Recurso F13B-01</t>
-  </si>
-  <si>
-    <t>Basarse en esta animación: http://www3.nd.edu/~ysun/Yang/PhysicsAnimation/collection/skateboardP.swf</t>
-  </si>
-  <si>
-    <t>La conservación del momento lineal</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra aplicaciones de la conservación del momento lineal en una y dos dimensiones</t>
-  </si>
-  <si>
     <t>Recurso F7B-01</t>
   </si>
   <si>
@@ -518,12 +481,6 @@
     <t>Recurso M5A-02</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: El momento lineal</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar la conservación del momento lineal</t>
-  </si>
-  <si>
     <t>Recurso M101A-02</t>
   </si>
   <si>
@@ -554,15 +511,6 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Basarse en http://www.physicsclassroom.com/Physics-Interactives/Momentum-and-Collisions/Collision-Carts/Collision-Carts-Interactive</t>
-  </si>
-  <si>
-    <t>Interactivo con animación que presenta casos de colisiones</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Choques elásticos e inelásticos</t>
-  </si>
-  <si>
     <t>Competencias: el juego de billar y el momento lineal</t>
   </si>
   <si>
@@ -593,12 +541,6 @@
     <t>Actividad de refuerzo acerca de cálculos en colisiones elásticas</t>
   </si>
   <si>
-    <t>Actividad de refuerzo acerca de cálculos en colisiones inelásticas</t>
-  </si>
-  <si>
-    <t>Recurso F4-02</t>
-  </si>
-  <si>
     <t>Cálculo en colisiones inelásticas</t>
   </si>
   <si>
@@ -608,9 +550,6 @@
     <t>Recurso M12D-01</t>
   </si>
   <si>
-    <t>Recurso M10A-01</t>
-  </si>
-  <si>
     <t>Evalua tus conocimientos sobre el tema Impulso y momento lineal</t>
   </si>
   <si>
@@ -626,28 +565,64 @@
     <t>Actividad que permite analizar las condiciones antes y después de una colisión</t>
   </si>
   <si>
-    <t>Competencias:  colisiones y pruebas de seguridad en automóviles</t>
-  </si>
-  <si>
     <t>Actividad que muestra las pruebas de colisión de automóviles como caso de aplicación de momento lineal</t>
   </si>
   <si>
-    <t>f6B</t>
-  </si>
-  <si>
-    <t>Recurso F6B-03</t>
-  </si>
-  <si>
     <t>Recurso M5A-04</t>
   </si>
   <si>
     <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Competencias: colisiones y pruebas de seguridad en automóviles</t>
+  </si>
+  <si>
+    <t>Aparte de lo que dice el título, que se muestre la conservación del momento lineal y la relación entre impluso y momento lineal (escoje el recurso que mejor se acomode)</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>¿Qué tanto sabes sobre el impulso y el momento lineal?</t>
+  </si>
+  <si>
+    <t>Actividad para resolver situciones y ejercicios sobre la conservación del momento lineal e impulso</t>
+  </si>
+  <si>
+    <t>Actividad que permite realizar  cálculos de colisiones inelásticas</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-02</t>
+  </si>
+  <si>
+    <t>Completa el cucigrama sobre el impulso</t>
+  </si>
+  <si>
+    <t>Actividad que permite desarrollar un crucigrama soobre el impulso</t>
+  </si>
+  <si>
+    <t>Conceptos de momento lineal e impluso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que permite analizar las definiciones de momento lineal e impulso </t>
+  </si>
+  <si>
+    <t>Recurso M11A-01</t>
+  </si>
+  <si>
+    <t>Recurso M14A-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,14 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -802,11 +771,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -816,176 +807,212 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1082,7 +1109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1291,2608 +1318,2392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U282"/>
+  <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="41" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="56" customWidth="1"/>
-    <col min="10" max="10" width="110" style="41" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="41" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="56" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="56" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="56" customWidth="1"/>
-    <col min="18" max="18" width="23" style="41" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="41" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="41"/>
+    <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="70.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="33" customWidth="1"/>
+    <col min="10" max="10" width="110" style="18" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
+    <col min="13" max="14" width="9.28515625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="33" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="33" customWidth="1"/>
+    <col min="18" max="18" width="23" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="17" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="71"/>
+      <c r="O1" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="53" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="25" t="s">
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="64"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="27"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q3" s="3">
         <v>6</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="16" t="s">
         <v>127</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="T3" s="40" t="s">
+      <c r="T3" s="17" t="s">
         <v>129</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="10">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>6</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="57" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H4" s="57">
-        <v>2</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="K4" s="59" t="s">
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="58" t="s">
+      <c r="J5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="33">
-        <v>3</v>
-      </c>
-      <c r="I5" s="44" t="s">
+      <c r="K5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="20"/>
+      <c r="P5" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q5" s="3">
         <v>6</v>
       </c>
-      <c r="R5" s="48" t="s">
+      <c r="R5" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="H6" s="41">
+        <v>4</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="K6" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>6</v>
+      </c>
+      <c r="R6" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="S6" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="34" t="s">
+      <c r="D7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="33">
-        <v>4</v>
-      </c>
-      <c r="I6" s="44" t="s">
+      <c r="E7" s="34"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="10">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="46" t="s">
+      <c r="L7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="47"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>6</v>
-      </c>
-      <c r="R6" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="33">
-        <v>5</v>
-      </c>
-      <c r="I7" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="K7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43" t="s">
+      <c r="M7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="3">
         <v>6</v>
       </c>
-      <c r="R7" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T7" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>139</v>
+      <c r="R7" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" s="45" t="s">
+      <c r="I8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43" t="s">
+      <c r="J8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="3">
         <v>6</v>
       </c>
-      <c r="R8" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="R8" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="10">
+        <v>7</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>6</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="57">
-        <v>7</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="K9" s="59" t="s">
+      <c r="D10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8</v>
+      </c>
+      <c r="I10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H10" s="33">
+      <c r="J10" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="K10" s="45" t="s">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="L10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43" t="s">
-        <v>19</v>
       </c>
       <c r="Q10" s="3">
         <v>6</v>
       </c>
-      <c r="R10" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="R10" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="D11" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="41">
         <v>9</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>6</v>
+      </c>
+      <c r="R11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="S11" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="U11" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="45" t="s">
+      <c r="J12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>6</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="33">
-        <v>10</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="K12" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43" t="s">
+      <c r="M12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="3">
         <v>6</v>
       </c>
-      <c r="R12" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T12" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>139</v>
+      <c r="R12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="33">
+      <c r="D13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="10">
         <v>11</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="45" t="s">
+      <c r="J13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="46" t="s">
+      <c r="L13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43" t="s">
+      <c r="M13" s="24"/>
+      <c r="N13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="Q13" s="3">
         <v>6</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T13" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="D14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="45" t="s">
+      <c r="J14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43" t="s">
-        <v>20</v>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="Q14" s="3">
         <v>6</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="U14" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T14" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="D15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="10">
         <v>13</v>
       </c>
-      <c r="I15" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="45" t="s">
+      <c r="I15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="47"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43" t="s">
-        <v>19</v>
+      <c r="J15" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="Q15" s="3">
         <v>6</v>
       </c>
-      <c r="R15" s="39" t="s">
-        <v>127</v>
+      <c r="R15" s="16" t="s">
+        <v>133</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T15" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="41">
+        <v>14</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>6</v>
+      </c>
+      <c r="R16" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="S16" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="U16" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="33">
-        <v>14</v>
-      </c>
-      <c r="I16" s="44" t="s">
+      <c r="H17" s="10">
+        <v>15</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="K16" s="45" t="s">
+      <c r="J17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="46" t="s">
+      <c r="L17" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>6</v>
-      </c>
-      <c r="R16" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T16" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="H17" s="33">
-        <v>15</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="K17" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43" t="s">
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="3">
         <v>6</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="S17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T17" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    </row>
+    <row r="18" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="33">
+      <c r="D18" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="41">
         <v>16</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" s="45" t="s">
+      <c r="J18" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="46" t="s">
+      <c r="L18" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43" t="s">
+      <c r="M18" s="45"/>
+      <c r="N18" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>6</v>
+      </c>
+      <c r="R18" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="S18" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="U18" s="48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="10">
+        <v>17</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="3">
-        <v>6</v>
-      </c>
-      <c r="R18" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T18" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="60" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="J19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="57" t="s">
+      <c r="B20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C20" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="57">
-        <v>17</v>
-      </c>
-      <c r="I19" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="59" t="s">
+      <c r="D20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H20" s="10">
+        <v>18</v>
+      </c>
+      <c r="I20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="33">
-        <v>18</v>
-      </c>
-      <c r="I20" s="44" t="s">
+      <c r="J20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="K20" s="45" t="s">
+      <c r="L20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="L20" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43" t="s">
-        <v>19</v>
       </c>
       <c r="Q20" s="3">
         <v>6</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="U20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S20" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T20" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="U20" s="4" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="D21" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="10">
         <v>19</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="45" t="s">
+      <c r="J21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43" t="s">
-        <v>19</v>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="Q21" s="3">
         <v>6</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="U21" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T21" s="49" t="s">
-        <v>175</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="33">
-        <v>20</v>
-      </c>
-      <c r="I22" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K22" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="N22" s="47"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>6</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T22" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="33">
-        <v>21</v>
-      </c>
-      <c r="I23" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="3"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="33">
-        <v>24</v>
-      </c>
-      <c r="I24" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="K24" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>6</v>
-      </c>
-      <c r="R24" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T24" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="4"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="33">
-        <v>25</v>
-      </c>
-      <c r="I25" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>6</v>
-      </c>
-      <c r="R25" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="T25" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="U25" s="4" t="s">
-        <v>139</v>
-      </c>
+      <c r="A25" s="28"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="4"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="48"/>
+      <c r="R26" s="25"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="49"/>
+      <c r="T26" s="26"/>
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="30"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="48"/>
+      <c r="R27" s="25"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="49"/>
+      <c r="T27" s="26"/>
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="30"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="48"/>
+      <c r="R28" s="25"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="49"/>
+      <c r="T28" s="26"/>
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="48"/>
+      <c r="R29" s="25"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="49"/>
+      <c r="T29" s="26"/>
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="48"/>
+      <c r="R30" s="25"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="49"/>
+      <c r="T30" s="26"/>
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="48"/>
+      <c r="R31" s="25"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="49"/>
+      <c r="T31" s="26"/>
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="48"/>
+      <c r="R32" s="25"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="49"/>
+      <c r="T32" s="26"/>
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="48"/>
+      <c r="R33" s="25"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="49"/>
+      <c r="T33" s="26"/>
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
       <c r="Q34" s="4"/>
-      <c r="R34" s="48"/>
+      <c r="R34" s="25"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="49"/>
+      <c r="T34" s="26"/>
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
       <c r="Q35" s="4"/>
-      <c r="R35" s="48"/>
+      <c r="R35" s="25"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="49"/>
+      <c r="T35" s="26"/>
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
       <c r="Q36" s="4"/>
-      <c r="R36" s="48"/>
+      <c r="R36" s="25"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="49"/>
+      <c r="T36" s="26"/>
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="48"/>
+      <c r="R37" s="25"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="49"/>
+      <c r="T37" s="26"/>
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
       <c r="Q38" s="4"/>
-      <c r="R38" s="48"/>
+      <c r="R38" s="25"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="49"/>
+      <c r="T38" s="26"/>
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
       <c r="Q39" s="4"/>
-      <c r="R39" s="48"/>
+      <c r="R39" s="25"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="49"/>
+      <c r="T39" s="26"/>
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
       <c r="Q40" s="4"/>
-      <c r="R40" s="48"/>
+      <c r="R40" s="25"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="49"/>
+      <c r="T40" s="26"/>
       <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="48"/>
+      <c r="R41" s="25"/>
       <c r="S41" s="4"/>
-      <c r="T41" s="49"/>
+      <c r="T41" s="26"/>
       <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
       <c r="Q42" s="4"/>
-      <c r="R42" s="48"/>
+      <c r="R42" s="25"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="49"/>
+      <c r="T42" s="26"/>
       <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
       <c r="Q43" s="4"/>
-      <c r="R43" s="48"/>
+      <c r="R43" s="25"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="49"/>
+      <c r="T43" s="26"/>
       <c r="U43" s="4"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
       <c r="Q44" s="4"/>
-      <c r="R44" s="48"/>
+      <c r="R44" s="25"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="49"/>
+      <c r="T44" s="26"/>
       <c r="U44" s="4"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
       <c r="Q45" s="4"/>
-      <c r="R45" s="48"/>
+      <c r="R45" s="25"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="49"/>
+      <c r="T45" s="26"/>
       <c r="U45" s="4"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
       <c r="Q46" s="4"/>
-      <c r="R46" s="48"/>
+      <c r="R46" s="25"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="49"/>
+      <c r="T46" s="26"/>
       <c r="U46" s="4"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
       <c r="Q47" s="4"/>
-      <c r="R47" s="48"/>
+      <c r="R47" s="25"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="49"/>
+      <c r="T47" s="26"/>
       <c r="U47" s="4"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
       <c r="Q48" s="4"/>
-      <c r="R48" s="48"/>
+      <c r="R48" s="25"/>
       <c r="S48" s="4"/>
-      <c r="T48" s="49"/>
+      <c r="T48" s="26"/>
       <c r="U48" s="4"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
       <c r="Q49" s="4"/>
-      <c r="R49" s="48"/>
+      <c r="R49" s="25"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="49"/>
+      <c r="T49" s="26"/>
       <c r="U49" s="4"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
       <c r="Q50" s="4"/>
-      <c r="R50" s="48"/>
+      <c r="R50" s="25"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="49"/>
+      <c r="T50" s="26"/>
       <c r="U50" s="4"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="47"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="48"/>
+      <c r="R51" s="25"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="49"/>
+      <c r="T51" s="26"/>
       <c r="U51" s="4"/>
     </row>
     <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="45"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="47"/>
-      <c r="N52" s="47"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="48"/>
+      <c r="R52" s="25"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="49"/>
+      <c r="T52" s="26"/>
       <c r="U52" s="4"/>
     </row>
     <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="45"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="48"/>
+      <c r="R53" s="25"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="49"/>
+      <c r="T53" s="26"/>
       <c r="U53" s="4"/>
     </row>
     <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="44"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="47"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="48"/>
+      <c r="R54" s="25"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="49"/>
+      <c r="T54" s="26"/>
       <c r="U54" s="4"/>
     </row>
     <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="44"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="47"/>
-      <c r="N55" s="47"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="48"/>
+      <c r="R55" s="25"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="49"/>
+      <c r="T55" s="26"/>
       <c r="U55" s="4"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="45"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="47"/>
-      <c r="N56" s="47"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="48"/>
+      <c r="R56" s="25"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="49"/>
+      <c r="T56" s="26"/>
       <c r="U56" s="4"/>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="44"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="48"/>
+      <c r="R57" s="25"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="49"/>
+      <c r="T57" s="26"/>
       <c r="U57" s="4"/>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
       <c r="Q58" s="4"/>
-      <c r="R58" s="48"/>
+      <c r="R58" s="25"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="49"/>
+      <c r="T58" s="26"/>
       <c r="U58" s="4"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="45"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="48"/>
+      <c r="R59" s="25"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="49"/>
+      <c r="T59" s="26"/>
       <c r="U59" s="4"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="44"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="48"/>
+      <c r="R60" s="25"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="49"/>
+      <c r="T60" s="26"/>
       <c r="U60" s="4"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="44"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="48"/>
+      <c r="R61" s="25"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="49"/>
+      <c r="T61" s="26"/>
       <c r="U61" s="4"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
       <c r="Q62" s="4"/>
-      <c r="R62" s="48"/>
+      <c r="R62" s="25"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="49"/>
+      <c r="T62" s="26"/>
       <c r="U62" s="4"/>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="44"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="48"/>
+      <c r="R63" s="25"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="49"/>
+      <c r="T63" s="26"/>
       <c r="U63" s="4"/>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+      <c r="A64" s="28"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
       <c r="Q64" s="4"/>
-      <c r="R64" s="48"/>
+      <c r="R64" s="25"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="49"/>
+      <c r="T64" s="26"/>
       <c r="U64" s="4"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="44"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="49"/>
-      <c r="U65" s="4"/>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="52"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="49"/>
-      <c r="U66" s="4"/>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="49"/>
-      <c r="U67" s="4"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="49"/>
-      <c r="U68" s="4"/>
-    </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="41" t="s">
-        <v>92</v>
+      <c r="A83" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
-        <v>93</v>
+      <c r="A84" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="41" t="s">
-        <v>94</v>
+      <c r="A85" s="18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="41" t="s">
-        <v>95</v>
+      <c r="A86" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="41" t="s">
-        <v>96</v>
+      <c r="A87" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="41" t="s">
-        <v>97</v>
+      <c r="A88" s="18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="41" t="s">
-        <v>99</v>
+      <c r="A89" s="18" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="41" t="s">
-        <v>98</v>
+      <c r="A90" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
-        <v>100</v>
+      <c r="A91" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="41" t="s">
-        <v>101</v>
+      <c r="A92" s="18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="41" t="s">
-        <v>102</v>
+      <c r="A93" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="41" t="s">
-        <v>103</v>
+      <c r="A94" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="41" t="s">
-        <v>104</v>
+      <c r="A95" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="41" t="s">
-        <v>105</v>
+      <c r="A96" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="41" t="s">
-        <v>106</v>
+      <c r="A97" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="41" t="s">
-        <v>65</v>
+      <c r="A98" s="18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="41" t="s">
-        <v>66</v>
+      <c r="A99" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="41" t="s">
-        <v>67</v>
+      <c r="A100" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="41" t="s">
-        <v>68</v>
+      <c r="A101" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="41" t="s">
-        <v>69</v>
+      <c r="A102" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
-        <v>70</v>
+      <c r="A103" s="18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="41" t="s">
-        <v>71</v>
+      <c r="A104" s="18" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
-        <v>72</v>
+      <c r="A105" s="18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
-        <v>73</v>
+      <c r="A106" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>74</v>
+      <c r="A107" s="18" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41" t="s">
-        <v>75</v>
+      <c r="A108" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41" t="s">
-        <v>76</v>
+      <c r="A109" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
-        <v>77</v>
+      <c r="A110" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="s">
-        <v>78</v>
+      <c r="A111" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
-        <v>79</v>
+      <c r="A112" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="41" t="s">
-        <v>80</v>
+      <c r="A113" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
-        <v>81</v>
+      <c r="A114" s="18" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="41" t="s">
+      <c r="A115" s="18" t="s">
         <v>115</v>
       </c>
     </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
@@ -4052,10 +3863,6 @@
     <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="279" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="280" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="281" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="282" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="I1:I2"/>
@@ -4088,31 +3895,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N68</xm:sqref>
+          <xm:sqref>N3:N64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A68</xm:sqref>
+          <xm:sqref>A3:A64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P68 I3:I68 K3:K68</xm:sqref>
+          <xm:sqref>P3:P64 I3:I64 K3:K64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L68</xm:sqref>
+          <xm:sqref>L3:L64</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M68</xm:sqref>
+          <xm:sqref>M3:M64</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PLANETA 10 Y 11\CN_10_06_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado10\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="159">
   <si>
     <t>Asignatura</t>
   </si>
@@ -225,66 +225,6 @@
     <t>f13b</t>
   </si>
   <si>
-    <t>M6A</t>
-  </si>
-  <si>
-    <t>M6B</t>
-  </si>
-  <si>
-    <t>M7A</t>
-  </si>
-  <si>
-    <t>M8A</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
-    <t>M10A</t>
-  </si>
-  <si>
-    <t>M10B</t>
-  </si>
-  <si>
-    <t>M11A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
-    <t>M12D</t>
-  </si>
-  <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
-    <t>M101A</t>
-  </si>
-  <si>
-    <t>M101AP</t>
-  </si>
-  <si>
-    <t>M102AB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuente curso </t>
   </si>
   <si>
@@ -304,51 +244,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>M1A</t>
-  </si>
-  <si>
-    <t>M1B</t>
-  </si>
-  <si>
-    <t>M1C</t>
-  </si>
-  <si>
-    <t>M1D</t>
-  </si>
-  <si>
-    <t>M2A</t>
-  </si>
-  <si>
-    <t>M2B</t>
-  </si>
-  <si>
-    <t>M3A</t>
-  </si>
-  <si>
-    <t>M2C</t>
-  </si>
-  <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
-    <t>M4A</t>
-  </si>
-  <si>
-    <t>M5A</t>
-  </si>
-  <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
   </si>
   <si>
     <t>Fichas</t>
@@ -374,12 +269,6 @@
   <si>
     <t>Aparece en cuaderno
 Si/No</t>
-  </si>
-  <si>
-    <t>FQ_10_13_08</t>
-  </si>
-  <si>
-    <t>TC_10_03_07</t>
   </si>
   <si>
     <t>DIAP f1</t>
@@ -622,7 +511,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -797,7 +686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -876,21 +765,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -900,12 +774,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -945,12 +813,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -967,51 +880,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1318,145 +1186,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U278"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="70.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="33" customWidth="1"/>
-    <col min="10" max="10" width="110" style="18" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="18" customWidth="1"/>
-    <col min="13" max="14" width="9.28515625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="33" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" style="33" customWidth="1"/>
-    <col min="17" max="17" width="20.42578125" style="33" customWidth="1"/>
-    <col min="18" max="18" width="23" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="18"/>
+    <col min="1" max="1" width="8.86328125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.265625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.59765625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="36.3984375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="3.86328125" style="28" customWidth="1"/>
+    <col min="9" max="9" width="4.73046875" style="28" customWidth="1"/>
+    <col min="10" max="10" width="46.265625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="4.1328125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="11" style="18" customWidth="1"/>
+    <col min="13" max="13" width="4" style="18" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" style="28" customWidth="1"/>
+    <col min="16" max="16" width="3.9296875" style="28" customWidth="1"/>
+    <col min="17" max="17" width="3" style="28" customWidth="1"/>
+    <col min="18" max="18" width="4" style="18" customWidth="1"/>
+    <col min="19" max="19" width="10.46484375" style="18" customWidth="1"/>
+    <col min="20" max="20" width="18.19921875" style="18" customWidth="1"/>
+    <col min="21" max="21" width="13.265625" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.3984375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="65" t="s">
+      <c r="D1" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="69" t="s">
+      <c r="H1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="71"/>
-      <c r="O1" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="P1" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="S1" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="T1" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="U1" s="53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="66"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="51"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="6" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="62"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="10"/>
       <c r="G3" s="11" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -1465,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
@@ -1485,27 +1354,33 @@
         <v>6</v>
       </c>
       <c r="R3" s="16" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
@@ -1514,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>20</v>
@@ -1534,35 +1409,35 @@
         <v>6</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
       <c r="G5" s="11" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="H5" s="10">
         <v>3</v>
@@ -1571,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>20</v>
@@ -1591,94 +1466,94 @@
         <v>6</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="41">
+      <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="34">
         <v>4</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="43" t="s">
+      <c r="J6" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="39">
         <v>6</v>
       </c>
-      <c r="R6" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="T6" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S6" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="34"/>
+        <v>104</v>
+      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="15"/>
       <c r="G7" s="11" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="H7" s="10">
         <v>5</v>
@@ -1687,7 +1562,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>20</v>
@@ -1700,7 +1575,7 @@
       </c>
       <c r="N7" s="14"/>
       <c r="O7" s="15" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="P7" s="15" t="s">
         <v>19</v>
@@ -1709,37 +1584,37 @@
         <v>6</v>
       </c>
       <c r="R7" s="16" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="11" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="H8" s="10">
         <v>6</v>
@@ -1748,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="K8" s="22" t="s">
         <v>20</v>
@@ -1768,27 +1643,33 @@
         <v>6</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="27"/>
       <c r="F9" s="20"/>
       <c r="G9" s="11" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="H9" s="10">
         <v>7</v>
@@ -1797,7 +1678,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -1807,7 +1688,7 @@
       </c>
       <c r="M9" s="24"/>
       <c r="N9" s="24" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="O9" s="20"/>
       <c r="P9" s="20" t="s">
@@ -1817,37 +1698,37 @@
         <v>6</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="11" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="H10" s="10">
         <v>8</v>
@@ -1856,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>20</v>
@@ -1876,94 +1757,94 @@
         <v>6</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="41">
+      <c r="B11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="34">
         <v>9</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="43" t="s">
+      <c r="J11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" s="46">
+      <c r="M11" s="38"/>
+      <c r="N11" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q11" s="39">
         <v>6</v>
       </c>
-      <c r="R11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="S11" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="T11" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="U11" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="E12" s="29"/>
       <c r="F12" s="15"/>
       <c r="G12" s="11" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="H12" s="10">
         <v>10</v>
@@ -1972,7 +1853,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>20</v>
@@ -1992,37 +1873,37 @@
         <v>6</v>
       </c>
       <c r="R12" s="16" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="11" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="H13" s="10">
         <v>11</v>
@@ -2031,7 +1912,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>20</v>
@@ -2051,37 +1932,37 @@
         <v>6</v>
       </c>
       <c r="R13" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="11" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="H14" s="10">
         <v>12</v>
@@ -2090,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>20</v>
@@ -2110,37 +1991,37 @@
         <v>6</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="11" t="s">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="H15" s="10">
         <v>13</v>
@@ -2149,7 +2030,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>20</v>
@@ -2169,94 +2050,94 @@
         <v>6</v>
       </c>
       <c r="R15" s="16" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="41">
+      <c r="B16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="34">
         <v>14</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="K16" s="43" t="s">
+      <c r="J16" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39" t="s">
+      <c r="M16" s="38"/>
+      <c r="N16" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="39">
         <v>6</v>
       </c>
-      <c r="R16" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="S16" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="U16" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="E17" s="29"/>
       <c r="F17" s="15"/>
       <c r="G17" s="11" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H17" s="10">
         <v>15</v>
@@ -2265,7 +2146,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>20</v>
@@ -2275,7 +2156,7 @@
       </c>
       <c r="M17" s="14"/>
       <c r="N17" s="14" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="O17" s="15"/>
       <c r="P17" s="15" t="s">
@@ -2285,89 +2166,89 @@
         <v>6</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" s="50" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="B18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="34">
         <v>16</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="K18" s="43" t="s">
+      <c r="J18" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39" t="s">
+      <c r="M18" s="38"/>
+      <c r="N18" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="41">
         <v>6</v>
       </c>
-      <c r="R18" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="S18" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="T18" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" s="48" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R18" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S18" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="34"/>
+        <v>118</v>
+      </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="15"/>
       <c r="G19" s="11" t="s">
         <v>10</v>
@@ -2379,7 +2260,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>20</v>
@@ -2399,23 +2280,23 @@
       <c r="T19" s="17"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="20"/>
       <c r="G20" s="11" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="H20" s="10">
         <v>18</v>
@@ -2424,7 +2305,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="K20" s="22" t="s">
         <v>20</v>
@@ -2444,35 +2325,35 @@
         <v>6</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T20" s="26" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="20"/>
       <c r="G21" s="11" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H21" s="10">
         <v>19</v>
@@ -2481,7 +2362,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>20</v>
@@ -2501,1370 +2382,26 @@
         <v>6</v>
       </c>
       <c r="R21" s="25" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="U21" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="25"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="4"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="4"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="4"/>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="25"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="4"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="4"/>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="4"/>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="4"/>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="4"/>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="4"/>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="25"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="4"/>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="25"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="4"/>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="25"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="4"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="25"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="4"/>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="25"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="4"/>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="4"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="25"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="4"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="25"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="4"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="24"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="25"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="4"/>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="4"/>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="25"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="26"/>
-      <c r="U63" s="4"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="25"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="26"/>
-      <c r="U64" s="4"/>
-    </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="244" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="245" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="246" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="247" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="248" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="249" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="250" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="251" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="252" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="253" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="254" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="255" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="256" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="257" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="260" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="261" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="262" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="263" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="264" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="265" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="266" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="267" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="268" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="269" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="270" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="271" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="272" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="273" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="274" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="275" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="276" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="277" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="278" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -3879,12 +2416,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -3895,31 +2426,31 @@
           <x14:formula1>
             <xm:f>DATOS!$E$14:$E$48</xm:f>
           </x14:formula1>
-          <xm:sqref>N3:N64</xm:sqref>
+          <xm:sqref>N3:N21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A64</xm:sqref>
+          <xm:sqref>A3:A21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$D$1:$D$2</xm:f>
           </x14:formula1>
-          <xm:sqref>P3:P64 I3:I64 K3:K64</xm:sqref>
+          <xm:sqref>P3:P21 I3:I21 K3:K21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$B$1:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L64</xm:sqref>
+          <xm:sqref>L3:L21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>DATOS!$E$1:$E$13</xm:f>
           </x14:formula1>
-          <xm:sqref>M3:M64</xm:sqref>
+          <xm:sqref>M3:M21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3938,27 +2469,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.86328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="24.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="11.3984375" style="1"/>
+    <col min="14" max="14" width="24.1328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3972,10 +2503,10 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3999,7 +2530,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4018,7 +2549,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4037,7 +2568,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4053,7 +2584,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4070,7 +2601,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +2618,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -4102,7 +2633,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -4117,7 +2648,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -4132,7 +2663,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -4147,7 +2678,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -4162,7 +2693,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4177,7 +2708,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4192,7 +2723,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4207,7 +2738,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4222,7 +2753,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -4236,7 +2767,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -4250,7 +2781,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -4264,7 +2795,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -4278,7 +2809,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -4293,7 +2824,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4308,7 +2839,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4323,7 +2854,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4338,7 +2869,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4353,7 +2884,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4368,7 +2899,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4383,7 +2914,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4398,7 +2929,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4413,7 +2944,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4428,7 +2959,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4443,7 +2974,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4458,7 +2989,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4473,7 +3004,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4488,7 +3019,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4503,12 +3034,12 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -4518,7 +3049,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4533,7 +3064,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4548,7 +3079,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -4563,7 +3094,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4578,7 +3109,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4593,7 +3124,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -4608,7 +3139,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4623,12 +3154,12 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -4638,7 +3169,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -4653,12 +3184,12 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -4668,7 +3199,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -4683,12 +3214,12 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -4698,7 +3229,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -4710,7 +3241,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -4722,7 +3253,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -4735,7 +3266,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -4748,7 +3279,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -4761,7 +3292,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4774,7 +3305,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -4787,7 +3318,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4800,7 +3331,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -4813,7 +3344,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -4826,7 +3357,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -4839,7 +3370,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -4852,7 +3383,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4865,7 +3396,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -4878,7 +3409,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -4891,7 +3422,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -4904,7 +3435,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -4917,7 +3448,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -4930,7 +3461,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -4943,7 +3474,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -4956,7 +3487,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4969,7 +3500,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -4982,7 +3513,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4996,7 +3527,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5010,7 +3541,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5024,7 +3555,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5038,7 +3569,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5052,7 +3583,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5066,7 +3597,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5080,7 +3611,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5094,7 +3625,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5108,7 +3639,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5122,7 +3653,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5136,7 +3667,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5150,7 +3681,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5164,7 +3695,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5178,7 +3709,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5192,7 +3723,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5206,7 +3737,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5220,7 +3751,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5234,7 +3765,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5248,7 +3779,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5262,7 +3793,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5276,7 +3807,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5290,7 +3821,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5304,7 +3835,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5318,7 +3849,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5332,7 +3863,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5346,7 +3877,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5360,7 +3891,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5374,7 +3905,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5388,7 +3919,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5402,7 +3933,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5416,7 +3947,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5430,7 +3961,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5444,7 +3975,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5458,7 +3989,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5472,7 +4003,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5486,7 +4017,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5500,7 +4031,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5514,7 +4045,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5528,7 +4059,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5542,7 +4073,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5556,7 +4087,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5570,7 +4101,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5584,7 +4115,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5598,7 +4129,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5612,7 +4143,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5626,7 +4157,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5640,7 +4171,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5654,7 +4185,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5668,7 +4199,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5682,7 +4213,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5696,7 +4227,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5710,7 +4241,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5724,7 +4255,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5738,7 +4269,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5752,7 +4283,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5766,7 +4297,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5780,7 +4311,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5794,7 +4325,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5808,7 +4339,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5822,7 +4353,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5836,7 +4367,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5850,7 +4381,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>

--- a/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
+++ b/fuentes/contenidos/grado10/guion06/Escaleta_CN_10_06_CO.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16828"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado10\guion06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado10\guion06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -475,12 +475,6 @@
     <t>¿Qué tanto sabes sobre el impulso y el momento lineal?</t>
   </si>
   <si>
-    <t>Actividad para resolver situciones y ejercicios sobre la conservación del momento lineal e impulso</t>
-  </si>
-  <si>
-    <t>Actividad que permite realizar  cálculos de colisiones inelásticas</t>
-  </si>
-  <si>
     <t>Recurso M102AB-02</t>
   </si>
   <si>
@@ -490,15 +484,6 @@
     <t>Recurso M4A-02</t>
   </si>
   <si>
-    <t>Completa el cucigrama sobre el impulso</t>
-  </si>
-  <si>
-    <t>Actividad que permite desarrollar un crucigrama soobre el impulso</t>
-  </si>
-  <si>
-    <t>Conceptos de momento lineal e impluso</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad que permite analizar las definiciones de momento lineal e impulso </t>
   </si>
   <si>
@@ -506,12 +491,27 @@
   </si>
   <si>
     <t>Recurso M14A-01</t>
+  </si>
+  <si>
+    <t>Completa el crucigrama sobre el impulso</t>
+  </si>
+  <si>
+    <t>Actividad que permite desarrollar un crucigrama sobre el impulso</t>
+  </si>
+  <si>
+    <t>Conceptos de momento lineal e impulso</t>
+  </si>
+  <si>
+    <t>Actividad para resolver situaciones y ejercicios sobre la conservación del momento lineal e impulso</t>
+  </si>
+  <si>
+    <t>Actividad que permite realizar cálculos de colisiones inelásticas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,18 +813,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -862,24 +880,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,6 +975,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1010,6 +1027,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1188,128 +1222,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="14.265625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="36.3984375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="3.86328125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="4.73046875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="46.265625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="4.1328125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="18" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="28" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" style="18" customWidth="1"/>
     <col min="12" max="12" width="11" style="18" customWidth="1"/>
     <col min="13" max="13" width="4" style="18" customWidth="1"/>
-    <col min="14" max="14" width="8.19921875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="13.86328125" style="28" customWidth="1"/>
-    <col min="16" max="16" width="3.9296875" style="28" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="4" style="28" customWidth="1"/>
     <col min="17" max="17" width="3" style="28" customWidth="1"/>
     <col min="18" max="18" width="4" style="18" customWidth="1"/>
-    <col min="19" max="19" width="10.46484375" style="18" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" style="18" customWidth="1"/>
-    <col min="21" max="21" width="13.265625" style="18" customWidth="1"/>
-    <col min="22" max="16384" width="11.3984375" style="18"/>
+    <col min="19" max="19" width="10.42578125" style="18" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="18" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="K1" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="64"/>
+      <c r="O1" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="63" t="s">
+      <c r="T1" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="46" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="51"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="53"/>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="59"/>
       <c r="M2" s="6" t="s">
         <v>70</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="62"/>
-    </row>
-    <row r="3" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1414,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
@@ -1389,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>20</v>
@@ -1415,13 +1449,13 @@
         <v>97</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1478,7 +1512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" s="43" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +1571,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +1630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -1655,7 +1689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1703,7 @@
       <c r="E9" s="27"/>
       <c r="F9" s="20"/>
       <c r="G9" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H9" s="10">
         <v>7</v>
@@ -1678,7 +1712,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>20</v>
@@ -1704,13 +1738,13 @@
         <v>97</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
@@ -1737,7 +1771,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>20</v>
@@ -1763,13 +1797,13 @@
         <v>97</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" s="43" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
@@ -1885,7 +1919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +1978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -2003,7 +2037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2064,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>20</v>
@@ -2056,13 +2090,13 @@
         <v>97</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" s="43" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -2121,7 +2155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="43" customFormat="1" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" s="43" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
@@ -2229,13 +2263,13 @@
         <v>97</v>
       </c>
       <c r="T18" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="U18" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.149999999999999" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2280,7 +2314,7 @@
       <c r="T19" s="17"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
@@ -2337,7 +2371,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>17</v>
       </c>
@@ -2396,12 +2430,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -2416,6 +2444,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2469,27 +2503,27 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.86328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.86328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
     <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" style="1"/>
-    <col min="14" max="14" width="24.1328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="69.86328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="24.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="69.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2506,7 +2540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -2530,7 +2564,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -2549,7 +2583,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2568,7 +2602,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -2584,7 +2618,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2601,7 +2635,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2618,7 +2652,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2633,7 +2667,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2648,7 +2682,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2663,7 +2697,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2678,7 +2712,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2693,7 +2727,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2708,7 +2742,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2723,7 +2757,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2738,7 +2772,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2753,7 +2787,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
@@ -2767,7 +2801,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
@@ -2781,7 +2815,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1" t="s">
@@ -2795,7 +2829,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
@@ -2809,7 +2843,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2824,7 +2858,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2839,7 +2873,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2854,7 +2888,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2869,7 +2903,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2884,7 +2918,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2899,7 +2933,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2914,7 +2948,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2929,7 +2963,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2944,7 +2978,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2959,7 +2993,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2974,7 +3008,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2989,7 +3023,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -3004,7 +3038,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -3019,7 +3053,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3034,7 +3068,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3049,7 +3083,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
     </row>
-    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3064,7 +3098,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3079,7 +3113,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3094,7 +3128,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
     </row>
-    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -3109,7 +3143,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -3124,7 +3158,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3139,7 +3173,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3154,7 +3188,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3169,7 +3203,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3184,7 +3218,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
     </row>
-    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3199,7 +3233,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
     </row>
-    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -3214,7 +3248,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3229,7 +3263,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3241,7 +3275,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3253,7 +3287,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3266,7 +3300,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3279,7 +3313,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3292,7 +3326,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3305,7 +3339,7 @@
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3318,7 +3352,7 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3331,7 +3365,7 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3344,7 +3378,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3357,7 +3391,7 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
-    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3370,7 +3404,7 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3383,7 +3417,7 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3396,7 +3430,7 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
-    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3409,7 +3443,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3422,7 +3456,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3435,7 +3469,7 @@
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3448,7 +3482,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3461,7 +3495,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3474,7 +3508,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3487,7 +3521,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3500,7 +3534,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3513,7 +3547,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3527,7 +3561,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3541,7 +3575,7 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3555,7 +3589,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3569,7 +3603,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3583,7 +3617,7 @@
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3597,7 +3631,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3611,7 +3645,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3625,7 +3659,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3639,7 +3673,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3653,7 +3687,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3667,7 +3701,7 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3681,7 +3715,7 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3695,7 +3729,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3709,7 +3743,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3723,7 +3757,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3737,7 +3771,7 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3751,7 +3785,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3765,7 +3799,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3779,7 +3813,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3793,7 +3827,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3807,7 +3841,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3821,7 +3855,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3835,7 +3869,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3849,7 +3883,7 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3863,7 +3897,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3877,7 +3911,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3891,7 +3925,7 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3905,7 +3939,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3919,7 +3953,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3933,7 +3967,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3947,7 +3981,7 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3961,7 +3995,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3975,7 +4009,7 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
     </row>
-    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3989,7 +4023,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4003,7 +4037,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4017,7 +4051,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4031,7 +4065,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4045,7 +4079,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4059,7 +4093,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4073,7 +4107,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4087,7 +4121,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4101,7 +4135,7 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
     </row>
-    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4115,7 +4149,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4129,7 +4163,7 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4143,7 +4177,7 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4157,7 +4191,7 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4171,7 +4205,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4185,7 +4219,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4199,7 +4233,7 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
-    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4213,7 +4247,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4227,7 +4261,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4241,7 +4275,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4255,7 +4289,7 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4269,7 +4303,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4283,7 +4317,7 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4297,7 +4331,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4311,7 +4345,7 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4325,7 +4359,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4339,7 +4373,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4353,7 +4387,7 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4367,7 +4401,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4381,7 +4415,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
